--- a/results/I3_N5_M2_T30_C150_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>183.4757182372767</v>
+        <v>249.4316415516093</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2590000629425049</v>
+        <v>0.2910001277923584</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>29.43164155160937</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.694340545865074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.694340545865074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.2899999999877</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.93048325774537</v>
+        <v>24.22809649842564</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.37517619638955</v>
+        <v>22.53211374152107</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.04215968028262</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.3989999999981</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -1060,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999978</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="5">
@@ -1071,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23199999999985</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>163.3299999999999</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>89.35200000000057</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1104,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>163.3300000000007</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -1115,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3989999999981</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.33000000000068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1173,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.398999999998091</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1278,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,23 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
